--- a/Team-Data/2012-13/1-20-2012-13.xlsx
+++ b/Team-Data/2012-13/1-20-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -756,10 +823,10 @@
         <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ2" t="n">
         <v>22</v>
@@ -774,7 +841,7 @@
         <v>5</v>
       </c>
       <c r="AN2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO2" t="n">
         <v>28</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-20-2012-13</t>
+          <t>2013-01-20</t>
         </is>
       </c>
     </row>
@@ -848,91 +915,91 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" t="n">
         <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5</v>
+        <v>0.513</v>
       </c>
       <c r="H3" t="n">
         <v>48.9</v>
       </c>
       <c r="I3" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="J3" t="n">
-        <v>79.90000000000001</v>
+        <v>79.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0.461</v>
+        <v>0.463</v>
       </c>
       <c r="L3" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="M3" t="n">
         <v>16.1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.337</v>
+        <v>0.339</v>
       </c>
       <c r="O3" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="P3" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.773</v>
+        <v>0.775</v>
       </c>
       <c r="R3" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="S3" t="n">
         <v>30.4</v>
       </c>
       <c r="T3" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
       </c>
       <c r="U3" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="V3" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="W3" t="n">
-        <v>8.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X3" t="n">
         <v>4.1</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.5</v>
+        <v>21.2</v>
       </c>
       <c r="AA3" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AB3" t="n">
-        <v>95</v>
+        <v>95.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>-1</v>
+        <v>-0.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE3" t="n">
         <v>16</v>
       </c>
       <c r="AF3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG3" t="n">
         <v>15</v>
@@ -941,7 +1008,7 @@
         <v>4</v>
       </c>
       <c r="AI3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ3" t="n">
         <v>27</v>
@@ -956,7 +1023,7 @@
         <v>28</v>
       </c>
       <c r="AN3" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AO3" t="n">
         <v>24</v>
@@ -974,7 +1041,7 @@
         <v>18</v>
       </c>
       <c r="AT3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AU3" t="n">
         <v>6</v>
@@ -989,19 +1056,19 @@
         <v>26</v>
       </c>
       <c r="AY3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ3" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BA3" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BB3" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="BC3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-20-2012-13</t>
+          <t>2013-01-20</t>
         </is>
       </c>
     </row>
@@ -1108,10 +1175,10 @@
         <v>2</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF4" t="n">
         <v>8</v>
@@ -1120,7 +1187,7 @@
         <v>9</v>
       </c>
       <c r="AH4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI4" t="n">
         <v>26</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-20-2012-13</t>
+          <t>2013-01-20</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-8.199999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
         <v>28</v>
@@ -1302,13 +1369,13 @@
         <v>28</v>
       </c>
       <c r="AH5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI5" t="n">
         <v>28</v>
       </c>
       <c r="AJ5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK5" t="n">
         <v>27</v>
@@ -1347,7 +1414,7 @@
         <v>6</v>
       </c>
       <c r="AW5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX5" t="n">
         <v>5</v>
@@ -1356,13 +1423,13 @@
         <v>30</v>
       </c>
       <c r="AZ5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC5" t="n">
         <v>30</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-20-2012-13</t>
+          <t>2013-01-20</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>2.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AE6" t="n">
         <v>11</v>
@@ -1484,7 +1551,7 @@
         <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI6" t="n">
         <v>25</v>
@@ -1502,7 +1569,7 @@
         <v>30</v>
       </c>
       <c r="AN6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO6" t="n">
         <v>8</v>
@@ -1541,7 +1608,7 @@
         <v>15</v>
       </c>
       <c r="BA6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BB6" t="n">
         <v>25</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-20-2012-13</t>
+          <t>2013-01-20</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-5.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
         <v>28</v>
@@ -1711,7 +1778,7 @@
         <v>15</v>
       </c>
       <c r="AW7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AX7" t="n">
         <v>30</v>
@@ -1726,7 +1793,7 @@
         <v>12</v>
       </c>
       <c r="BB7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC7" t="n">
         <v>27</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-20-2012-13</t>
+          <t>2013-01-20</t>
         </is>
       </c>
     </row>
@@ -1758,46 +1825,46 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" t="n">
         <v>24</v>
       </c>
       <c r="G8" t="n">
-        <v>0.429</v>
+        <v>0.415</v>
       </c>
       <c r="H8" t="n">
         <v>49.2</v>
       </c>
       <c r="I8" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="J8" t="n">
-        <v>84</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="L8" t="n">
         <v>7</v>
       </c>
       <c r="M8" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="N8" t="n">
-        <v>0.359</v>
+        <v>0.356</v>
       </c>
       <c r="O8" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="P8" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.794</v>
+        <v>0.793</v>
       </c>
       <c r="R8" t="n">
         <v>9.4</v>
@@ -1809,10 +1876,10 @@
         <v>41.9</v>
       </c>
       <c r="U8" t="n">
-        <v>22.3</v>
+        <v>22.1</v>
       </c>
       <c r="V8" t="n">
-        <v>14.5</v>
+        <v>14.7</v>
       </c>
       <c r="W8" t="n">
         <v>7.8</v>
@@ -1824,19 +1891,19 @@
         <v>4.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="AA8" t="n">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="AB8" t="n">
-        <v>100.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC8" t="n">
-        <v>-2.8</v>
+        <v>-3</v>
       </c>
       <c r="AD8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE8" t="n">
         <v>18</v>
@@ -1845,13 +1912,13 @@
         <v>21</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH8" t="n">
         <v>1</v>
       </c>
       <c r="AI8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AJ8" t="n">
         <v>5</v>
@@ -1866,16 +1933,16 @@
         <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AP8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR8" t="n">
         <v>27</v>
@@ -1887,10 +1954,10 @@
         <v>18</v>
       </c>
       <c r="AU8" t="n">
+        <v>14</v>
+      </c>
+      <c r="AV8" t="n">
         <v>13</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>11</v>
       </c>
       <c r="AW8" t="n">
         <v>15</v>
@@ -1902,10 +1969,10 @@
         <v>8</v>
       </c>
       <c r="AZ8" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BA8" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BB8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-20-2012-13</t>
+          <t>2013-01-20</t>
         </is>
       </c>
     </row>
@@ -1940,61 +2007,61 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" t="n">
         <v>18</v>
       </c>
       <c r="G9" t="n">
-        <v>0.581</v>
+        <v>0.571</v>
       </c>
       <c r="H9" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I9" t="n">
-        <v>39.6</v>
+        <v>39.5</v>
       </c>
       <c r="J9" t="n">
-        <v>85.2</v>
+        <v>85</v>
       </c>
       <c r="K9" t="n">
         <v>0.465</v>
       </c>
       <c r="L9" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="M9" t="n">
         <v>18.7</v>
       </c>
       <c r="N9" t="n">
-        <v>0.331</v>
+        <v>0.328</v>
       </c>
       <c r="O9" t="n">
-        <v>17.7</v>
+        <v>17.5</v>
       </c>
       <c r="P9" t="n">
-        <v>26</v>
+        <v>25.8</v>
       </c>
       <c r="Q9" t="n">
         <v>0.681</v>
       </c>
       <c r="R9" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="S9" t="n">
         <v>31.7</v>
       </c>
       <c r="T9" t="n">
-        <v>45.7</v>
+        <v>45.6</v>
       </c>
       <c r="U9" t="n">
         <v>23.5</v>
       </c>
       <c r="V9" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="W9" t="n">
         <v>8.199999999999999</v>
@@ -2003,25 +2070,25 @@
         <v>6.4</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="AA9" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AB9" t="n">
-        <v>103.1</v>
+        <v>102.7</v>
       </c>
       <c r="AC9" t="n">
         <v>2.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF9" t="n">
         <v>11</v>
@@ -2030,7 +2097,7 @@
         <v>11</v>
       </c>
       <c r="AH9" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AI9" t="n">
         <v>2</v>
@@ -2051,10 +2118,10 @@
         <v>29</v>
       </c>
       <c r="AO9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ9" t="n">
         <v>30</v>
@@ -2069,13 +2136,13 @@
         <v>2</v>
       </c>
       <c r="AU9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AW9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX9" t="n">
         <v>4</v>
@@ -2084,13 +2151,13 @@
         <v>28</v>
       </c>
       <c r="AZ9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC9" t="n">
         <v>7</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-20-2012-13</t>
+          <t>2013-01-20</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" t="n">
         <v>25</v>
       </c>
       <c r="G10" t="n">
-        <v>0.375</v>
+        <v>0.359</v>
       </c>
       <c r="H10" t="n">
         <v>48.6</v>
@@ -2140,25 +2207,25 @@
         <v>35.9</v>
       </c>
       <c r="J10" t="n">
-        <v>80.8</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L10" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M10" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="N10" t="n">
-        <v>0.376</v>
+        <v>0.373</v>
       </c>
       <c r="O10" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="P10" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="Q10" t="n">
         <v>0.709</v>
@@ -2167,40 +2234,40 @@
         <v>12.5</v>
       </c>
       <c r="S10" t="n">
-        <v>31.1</v>
+        <v>30.9</v>
       </c>
       <c r="T10" t="n">
-        <v>43.6</v>
+        <v>43.4</v>
       </c>
       <c r="U10" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V10" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="W10" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="X10" t="n">
         <v>5.7</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z10" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AA10" t="n">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>95</v>
+        <v>94.8</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.1</v>
+        <v>-1.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2230,7 +2297,7 @@
         <v>26</v>
       </c>
       <c r="AN10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO10" t="n">
         <v>17</v>
@@ -2269,10 +2336,10 @@
         <v>17</v>
       </c>
       <c r="BA10" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BB10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC10" t="n">
         <v>18</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-20-2012-13</t>
+          <t>2013-01-20</t>
         </is>
       </c>
     </row>
@@ -2382,10 +2449,10 @@
         <v>1.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AE11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF11" t="n">
         <v>7</v>
@@ -2394,16 +2461,16 @@
         <v>7</v>
       </c>
       <c r="AH11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ11" t="n">
         <v>12</v>
       </c>
       <c r="AK11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL11" t="n">
         <v>8</v>
@@ -2412,7 +2479,7 @@
         <v>12</v>
       </c>
       <c r="AN11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO11" t="n">
         <v>16</v>
@@ -2436,7 +2503,7 @@
         <v>8</v>
       </c>
       <c r="AV11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW11" t="n">
         <v>26</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-20-2012-13</t>
+          <t>2013-01-20</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>1.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
         <v>14</v>
@@ -2573,13 +2640,13 @@
         <v>18</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ12" t="n">
         <v>10</v>
@@ -2594,7 +2661,7 @@
         <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO12" t="n">
         <v>5</v>
@@ -2615,7 +2682,7 @@
         <v>12</v>
       </c>
       <c r="AU12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV12" t="n">
         <v>30</v>
@@ -2630,7 +2697,7 @@
         <v>25</v>
       </c>
       <c r="AZ12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA12" t="n">
         <v>17</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-20-2012-13</t>
+          <t>2013-01-20</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>2.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE13" t="n">
         <v>6</v>
@@ -2758,7 +2825,7 @@
         <v>8</v>
       </c>
       <c r="AH13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI13" t="n">
         <v>30</v>
@@ -2782,7 +2849,7 @@
         <v>20</v>
       </c>
       <c r="AP13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ13" t="n">
         <v>23</v>
@@ -2815,7 +2882,7 @@
         <v>11</v>
       </c>
       <c r="BA13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BB13" t="n">
         <v>29</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-20-2012-13</t>
+          <t>2013-01-20</t>
         </is>
       </c>
     </row>
@@ -2928,16 +2995,16 @@
         <v>8.9</v>
       </c>
       <c r="AD14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE14" t="n">
         <v>1</v>
       </c>
       <c r="AF14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH14" t="n">
         <v>30</v>
@@ -2961,7 +3028,7 @@
         <v>17</v>
       </c>
       <c r="AO14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP14" t="n">
         <v>8</v>
@@ -2979,7 +3046,7 @@
         <v>16</v>
       </c>
       <c r="AU14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV14" t="n">
         <v>9</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-20-2012-13</t>
+          <t>2013-01-20</t>
         </is>
       </c>
     </row>
@@ -3032,55 +3099,55 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E15" t="n">
         <v>17</v>
       </c>
       <c r="F15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G15" t="n">
-        <v>0.425</v>
+        <v>0.436</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
       </c>
       <c r="I15" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J15" t="n">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="K15" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L15" t="n">
         <v>9</v>
       </c>
       <c r="M15" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="N15" t="n">
-        <v>0.356</v>
+        <v>0.357</v>
       </c>
       <c r="O15" t="n">
         <v>19.6</v>
       </c>
       <c r="P15" t="n">
-        <v>28.2</v>
+        <v>28.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.694</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="R15" t="n">
         <v>12.4</v>
       </c>
       <c r="S15" t="n">
-        <v>32.7</v>
+        <v>32.9</v>
       </c>
       <c r="T15" t="n">
-        <v>45.1</v>
+        <v>45.3</v>
       </c>
       <c r="U15" t="n">
         <v>22.1</v>
@@ -3098,7 +3165,7 @@
         <v>4.9</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AA15" t="n">
         <v>23.2</v>
@@ -3107,19 +3174,19 @@
         <v>103.1</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF15" t="n">
         <v>19</v>
       </c>
       <c r="AG15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH15" t="n">
         <v>29</v>
@@ -3128,7 +3195,7 @@
         <v>11</v>
       </c>
       <c r="AJ15" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK15" t="n">
         <v>9</v>
@@ -3140,7 +3207,7 @@
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO15" t="n">
         <v>3</v>
@@ -3161,10 +3228,10 @@
         <v>3</v>
       </c>
       <c r="AU15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV15" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AW15" t="n">
         <v>20</v>
@@ -3173,16 +3240,16 @@
         <v>10</v>
       </c>
       <c r="AY15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA15" t="n">
         <v>1</v>
       </c>
       <c r="BB15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC15" t="n">
         <v>11</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-20-2012-13</t>
+          <t>2013-01-20</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>3.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AE16" t="n">
         <v>4</v>
@@ -3304,7 +3371,7 @@
         <v>5</v>
       </c>
       <c r="AH16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI16" t="n">
         <v>23</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-20-2012-13</t>
+          <t>2013-01-20</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3553,7 @@
         <v>4</v>
       </c>
       <c r="AH17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI17" t="n">
         <v>4</v>
@@ -3507,7 +3574,7 @@
         <v>3</v>
       </c>
       <c r="AO17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP17" t="n">
         <v>12</v>
@@ -3522,7 +3589,7 @@
         <v>15</v>
       </c>
       <c r="AT17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AU17" t="n">
         <v>12</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-20-2012-13</t>
+          <t>2013-01-20</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-0.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AE18" t="n">
         <v>14</v>
@@ -3671,7 +3738,7 @@
         <v>25</v>
       </c>
       <c r="AI18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ18" t="n">
         <v>1</v>
@@ -3686,7 +3753,7 @@
         <v>24</v>
       </c>
       <c r="AN18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO18" t="n">
         <v>22</v>
@@ -3722,7 +3789,7 @@
         <v>5</v>
       </c>
       <c r="AZ18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA18" t="n">
         <v>16</v>
@@ -3731,7 +3798,7 @@
         <v>15</v>
       </c>
       <c r="BC18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-20-2012-13</t>
+          <t>2013-01-20</t>
         </is>
       </c>
     </row>
@@ -3841,10 +3908,10 @@
         <v>30</v>
       </c>
       <c r="AE19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG19" t="n">
         <v>18</v>
@@ -3874,7 +3941,7 @@
         <v>4</v>
       </c>
       <c r="AP19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ19" t="n">
         <v>22</v>
@@ -3892,7 +3959,7 @@
         <v>19</v>
       </c>
       <c r="AV19" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AW19" t="n">
         <v>17</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-20-2012-13</t>
+          <t>2013-01-20</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-4</v>
       </c>
       <c r="AD20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE20" t="n">
         <v>26</v>
@@ -4032,7 +4099,7 @@
         <v>26</v>
       </c>
       <c r="AH20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI20" t="n">
         <v>22</v>
@@ -4059,7 +4126,7 @@
         <v>28</v>
       </c>
       <c r="AQ20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR20" t="n">
         <v>17</v>
@@ -4074,7 +4141,7 @@
         <v>21</v>
       </c>
       <c r="AV20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW20" t="n">
         <v>28</v>
@@ -4086,7 +4153,7 @@
         <v>26</v>
       </c>
       <c r="AZ20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA20" t="n">
         <v>27</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-20-2012-13</t>
+          <t>2013-01-20</t>
         </is>
       </c>
     </row>
@@ -4268,7 +4335,7 @@
         <v>2</v>
       </c>
       <c r="AZ21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA21" t="n">
         <v>21</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-20-2012-13</t>
+          <t>2013-01-20</t>
         </is>
       </c>
     </row>
@@ -4306,19 +4373,19 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E22" t="n">
         <v>32</v>
       </c>
       <c r="F22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G22" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="H22" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I22" t="n">
         <v>37.7</v>
@@ -4333,16 +4400,16 @@
         <v>7.6</v>
       </c>
       <c r="M22" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N22" t="n">
-        <v>0.388</v>
+        <v>0.389</v>
       </c>
       <c r="O22" t="n">
-        <v>23.1</v>
+        <v>22.7</v>
       </c>
       <c r="P22" t="n">
-        <v>27.6</v>
+        <v>27.1</v>
       </c>
       <c r="Q22" t="n">
         <v>0.838</v>
@@ -4351,40 +4418,40 @@
         <v>10.7</v>
       </c>
       <c r="S22" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="T22" t="n">
-        <v>43.2</v>
+        <v>43.4</v>
       </c>
       <c r="U22" t="n">
         <v>21.6</v>
       </c>
       <c r="V22" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="W22" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="X22" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="Y22" t="n">
         <v>4.1</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="AA22" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="AB22" t="n">
-        <v>106</v>
+        <v>105.7</v>
       </c>
       <c r="AC22" t="n">
-        <v>9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD22" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
         <v>1</v>
@@ -4396,10 +4463,10 @@
         <v>1</v>
       </c>
       <c r="AH22" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AI22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ22" t="n">
         <v>29</v>
@@ -4414,7 +4481,7 @@
         <v>15</v>
       </c>
       <c r="AN22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO22" t="n">
         <v>1</v>
@@ -4441,7 +4508,7 @@
         <v>29</v>
       </c>
       <c r="AW22" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AX22" t="n">
         <v>2</v>
@@ -4453,7 +4520,7 @@
         <v>20</v>
       </c>
       <c r="BA22" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BB22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-20-2012-13</t>
+          <t>2013-01-20</t>
         </is>
       </c>
     </row>
@@ -4488,58 +4555,58 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E23" t="n">
         <v>14</v>
       </c>
       <c r="F23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G23" t="n">
-        <v>0.35</v>
+        <v>0.359</v>
       </c>
       <c r="H23" t="n">
         <v>48.4</v>
       </c>
       <c r="I23" t="n">
-        <v>37.9</v>
+        <v>37.8</v>
       </c>
       <c r="J23" t="n">
-        <v>82.8</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L23" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M23" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="N23" t="n">
-        <v>0.355</v>
+        <v>0.353</v>
       </c>
       <c r="O23" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="P23" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="Q23" t="n">
         <v>0.784</v>
       </c>
       <c r="R23" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S23" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="T23" t="n">
         <v>42.5</v>
       </c>
       <c r="U23" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="V23" t="n">
         <v>14.7</v>
@@ -4548,46 +4615,46 @@
         <v>5.9</v>
       </c>
       <c r="X23" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z23" t="n">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="AA23" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="AB23" t="n">
-        <v>95.40000000000001</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>-3.4</v>
+        <v>-3.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE23" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AF23" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG23" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AH23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ23" t="n">
         <v>13</v>
       </c>
       <c r="AK23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL23" t="n">
         <v>16</v>
@@ -4596,7 +4663,7 @@
         <v>17</v>
       </c>
       <c r="AN23" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AO23" t="n">
         <v>29</v>
@@ -4629,16 +4696,16 @@
         <v>25</v>
       </c>
       <c r="AY23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ23" t="n">
         <v>14</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>12</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
       </c>
       <c r="BB23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC23" t="n">
         <v>23</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-20-2012-13</t>
+          <t>2013-01-20</t>
         </is>
       </c>
     </row>
@@ -4748,13 +4815,13 @@
         <v>-4.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG24" t="n">
         <v>20</v>
@@ -4778,7 +4845,7 @@
         <v>22</v>
       </c>
       <c r="AN24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-20-2012-13</t>
+          <t>2013-01-20</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-4.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE25" t="n">
         <v>26</v>
@@ -4942,7 +5009,7 @@
         <v>27</v>
       </c>
       <c r="AH25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI25" t="n">
         <v>10</v>
@@ -4987,7 +5054,7 @@
         <v>5</v>
       </c>
       <c r="AW25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX25" t="n">
         <v>8</v>
@@ -4996,7 +5063,7 @@
         <v>18</v>
       </c>
       <c r="AZ25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA25" t="n">
         <v>28</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-20-2012-13</t>
+          <t>2013-01-20</t>
         </is>
       </c>
     </row>
@@ -5112,22 +5179,22 @@
         <v>-2.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE26" t="n">
         <v>16</v>
       </c>
       <c r="AF26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ26" t="n">
         <v>9</v>
@@ -5142,7 +5209,7 @@
         <v>4</v>
       </c>
       <c r="AN26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO26" t="n">
         <v>18</v>
@@ -5151,7 +5218,7 @@
         <v>20</v>
       </c>
       <c r="AQ26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR26" t="n">
         <v>13</v>
@@ -5178,7 +5245,7 @@
         <v>4</v>
       </c>
       <c r="AZ26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA26" t="n">
         <v>24</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-20-2012-13</t>
+          <t>2013-01-20</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-5.7</v>
       </c>
       <c r="AD27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE27" t="n">
         <v>22</v>
@@ -5306,7 +5373,7 @@
         <v>22</v>
       </c>
       <c r="AH27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI27" t="n">
         <v>18</v>
@@ -5315,7 +5382,7 @@
         <v>8</v>
       </c>
       <c r="AK27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL27" t="n">
         <v>17</v>
@@ -5324,7 +5391,7 @@
         <v>18</v>
       </c>
       <c r="AN27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO27" t="n">
         <v>15</v>
@@ -5348,7 +5415,7 @@
         <v>27</v>
       </c>
       <c r="AV27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW27" t="n">
         <v>14</v>
@@ -5363,7 +5430,7 @@
         <v>25</v>
       </c>
       <c r="BA27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB27" t="n">
         <v>14</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-20-2012-13</t>
+          <t>2013-01-20</t>
         </is>
       </c>
     </row>
@@ -5488,13 +5555,13 @@
         <v>3</v>
       </c>
       <c r="AH28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI28" t="n">
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
@@ -5515,7 +5582,7 @@
         <v>24</v>
       </c>
       <c r="AQ28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR28" t="n">
         <v>29</v>
@@ -5539,7 +5606,7 @@
         <v>11</v>
       </c>
       <c r="AY28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-20-2012-13</t>
+          <t>2013-01-20</t>
         </is>
       </c>
     </row>
@@ -5580,28 +5647,28 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F29" t="n">
         <v>26</v>
       </c>
       <c r="G29" t="n">
-        <v>0.366</v>
+        <v>0.35</v>
       </c>
       <c r="H29" t="n">
         <v>49</v>
       </c>
       <c r="I29" t="n">
-        <v>36.3</v>
+        <v>36.1</v>
       </c>
       <c r="J29" t="n">
         <v>82.2</v>
       </c>
       <c r="K29" t="n">
-        <v>0.442</v>
+        <v>0.439</v>
       </c>
       <c r="L29" t="n">
         <v>7.6</v>
@@ -5610,19 +5677,19 @@
         <v>21.9</v>
       </c>
       <c r="N29" t="n">
-        <v>0.347</v>
+        <v>0.348</v>
       </c>
       <c r="O29" t="n">
-        <v>17.2</v>
+        <v>17.4</v>
       </c>
       <c r="P29" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.771</v>
+        <v>0.775</v>
       </c>
       <c r="R29" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S29" t="n">
         <v>29.3</v>
@@ -5631,13 +5698,13 @@
         <v>40.1</v>
       </c>
       <c r="U29" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="V29" t="n">
         <v>12.9</v>
       </c>
       <c r="W29" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X29" t="n">
         <v>4.6</v>
@@ -5649,25 +5716,25 @@
         <v>22.8</v>
       </c>
       <c r="AA29" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB29" t="n">
-        <v>97.40000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC29" t="n">
-        <v>-1.9</v>
+        <v>-2.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AE29" t="n">
         <v>23</v>
       </c>
       <c r="AF29" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG29" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH29" t="n">
         <v>2</v>
@@ -5679,7 +5746,7 @@
         <v>15</v>
       </c>
       <c r="AK29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL29" t="n">
         <v>9</v>
@@ -5691,13 +5758,13 @@
         <v>19</v>
       </c>
       <c r="AO29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP29" t="n">
         <v>13</v>
       </c>
       <c r="AQ29" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AR29" t="n">
         <v>21</v>
@@ -5709,13 +5776,13 @@
         <v>28</v>
       </c>
       <c r="AU29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV29" t="n">
         <v>3</v>
       </c>
       <c r="AW29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX29" t="n">
         <v>24</v>
@@ -5727,7 +5794,7 @@
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BB29" t="n">
         <v>12</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-20-2012-13</t>
+          <t>2013-01-20</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>0.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE30" t="n">
         <v>12</v>
@@ -5852,7 +5919,7 @@
         <v>14</v>
       </c>
       <c r="AH30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI30" t="n">
         <v>17</v>
@@ -5909,7 +5976,7 @@
         <v>29</v>
       </c>
       <c r="BA30" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BB30" t="n">
         <v>11</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-20-2012-13</t>
+          <t>2013-01-20</t>
         </is>
       </c>
     </row>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-20-2012-13</t>
+          <t>2013-01-20</t>
         </is>
       </c>
     </row>
